--- a/Code/Results/Cases/Case_4_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_105/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.18328959873955</v>
+        <v>27.37907883418829</v>
       </c>
       <c r="C2">
-        <v>25.28611924613695</v>
+        <v>16.52175977624685</v>
       </c>
       <c r="D2">
-        <v>7.198822023462026</v>
+        <v>6.053805848669706</v>
       </c>
       <c r="E2">
-        <v>5.010140160268685</v>
+        <v>7.326001658998125</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.065734589263533</v>
+        <v>3.742306077781016</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.22423964764008</v>
+        <v>36.47353691899758</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.491912509803026</v>
+        <v>11.24777033414911</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.92441377150469</v>
+        <v>21.25543154662104</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.9744714871517</v>
+        <v>26.88870003491815</v>
       </c>
       <c r="C3">
-        <v>23.37343204099474</v>
+        <v>15.89276050444071</v>
       </c>
       <c r="D3">
-        <v>6.658698148897674</v>
+        <v>5.949053628159719</v>
       </c>
       <c r="E3">
-        <v>4.905667376690777</v>
+        <v>7.306207804260249</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.083736091195096</v>
+        <v>3.74808147660402</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.95743870681583</v>
+        <v>36.30476402954628</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.165726533619793</v>
+        <v>11.22912619536125</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.02700029802628</v>
+        <v>21.28723491231438</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.60707614306132</v>
+        <v>26.59295786546052</v>
       </c>
       <c r="C4">
-        <v>22.15641421874998</v>
+        <v>15.5001022417505</v>
       </c>
       <c r="D4">
-        <v>6.313679804741887</v>
+        <v>5.885970466723176</v>
       </c>
       <c r="E4">
-        <v>4.84257652366903</v>
+        <v>7.293845820229543</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.094893658252807</v>
+        <v>3.751802919987089</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.19904454730545</v>
+        <v>36.20980109898311</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.969128578840803</v>
+        <v>11.22033054298903</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.09722178324614</v>
+        <v>21.30868901273648</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.0409677443175</v>
+        <v>26.473954012554</v>
       </c>
       <c r="C5">
-        <v>21.64928718538114</v>
+        <v>15.33874859849085</v>
       </c>
       <c r="D5">
-        <v>6.186809158247965</v>
+        <v>5.8606081930798</v>
       </c>
       <c r="E5">
-        <v>4.817065955285538</v>
+        <v>7.288755202917619</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.099475812172724</v>
+        <v>3.753363742165789</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.89470847256068</v>
+        <v>36.17329430043787</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.889937880862148</v>
+        <v>11.21741351900184</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.12752037763311</v>
+        <v>21.31791422662682</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.94642986688993</v>
+        <v>26.45428977765084</v>
       </c>
       <c r="C6">
-        <v>21.56439185957387</v>
+        <v>15.31188355455339</v>
       </c>
       <c r="D6">
-        <v>6.166600486462567</v>
+        <v>5.856418604009487</v>
       </c>
       <c r="E6">
-        <v>4.812840246709428</v>
+        <v>7.287906691066093</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.10023905430059</v>
+        <v>3.753625597687563</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.84445497068577</v>
+        <v>36.16736503597656</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.876844479457665</v>
+        <v>11.21696945317779</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.13264944488347</v>
+        <v>21.31947514997549</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.59947737743217</v>
+        <v>26.59134658997167</v>
       </c>
       <c r="C7">
-        <v>22.14962075294563</v>
+        <v>15.49793121631057</v>
       </c>
       <c r="D7">
-        <v>6.311750664294105</v>
+        <v>5.885626982312188</v>
       </c>
       <c r="E7">
-        <v>4.842231751715874</v>
+        <v>7.293777381790896</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.094955300476817</v>
+        <v>3.751823790107389</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.19492124004818</v>
+        <v>36.20929986831292</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.968056829998741</v>
+        <v>11.22028850102365</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.09762375343769</v>
+        <v>21.30881147619865</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.40345773706773</v>
+        <v>27.20898640010407</v>
       </c>
       <c r="C8">
-        <v>24.63516116003193</v>
+        <v>16.30637947561581</v>
       </c>
       <c r="D8">
-        <v>7.015267830408793</v>
+        <v>6.017451519207547</v>
       </c>
       <c r="E8">
-        <v>4.973855716182305</v>
+        <v>7.319219651519279</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.071925635482895</v>
+        <v>3.744261177594781</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.78328643075929</v>
+        <v>36.41355426206934</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.378672321041506</v>
+        <v>11.24079183984288</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.95819638909018</v>
+        <v>21.26599625525778</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.98290533028333</v>
+        <v>28.45523255496243</v>
       </c>
       <c r="C9">
-        <v>29.19756269107248</v>
+        <v>17.82958253783069</v>
       </c>
       <c r="D9">
-        <v>8.296602909125546</v>
+        <v>6.2842446664792</v>
       </c>
       <c r="E9">
-        <v>5.243987273236569</v>
+        <v>7.367485578775018</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.027111843752558</v>
+        <v>3.730812127742364</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.06532943012592</v>
+        <v>36.88215322692703</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.214485467830107</v>
+        <v>11.30200040673324</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.74947811093998</v>
+        <v>21.19741385447108</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40.91422435523786</v>
+        <v>29.38236676691933</v>
       </c>
       <c r="C10">
-        <v>32.40638978154545</v>
+        <v>18.89788789808266</v>
       </c>
       <c r="D10">
-        <v>9.191344977901785</v>
+        <v>6.483283536285496</v>
       </c>
       <c r="E10">
-        <v>5.456225217667201</v>
+        <v>7.401995962729109</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.993576753546139</v>
+        <v>3.721759213915345</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.6082216287168</v>
+        <v>37.26681127270234</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.851788454789826</v>
+        <v>11.35968865144121</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.64808271281104</v>
+        <v>21.15652776607866</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>42.67812764006965</v>
+        <v>29.80461894059443</v>
       </c>
       <c r="C11">
-        <v>33.84923769239595</v>
+        <v>19.37062654542875</v>
       </c>
       <c r="D11">
-        <v>9.592079936871166</v>
+        <v>6.574068763846064</v>
       </c>
       <c r="E11">
-        <v>5.557753072536356</v>
+        <v>7.417498158711773</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.977946464419855</v>
+        <v>3.71781762032989</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.80453208354883</v>
+        <v>37.45027509866243</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.1487547206468</v>
+        <v>11.38866504487844</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.6169144856862</v>
+        <v>21.14001860899775</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43.34423270693396</v>
+        <v>29.96442402376906</v>
       </c>
       <c r="C12">
-        <v>34.3947464449456</v>
+        <v>19.54758113357756</v>
       </c>
       <c r="D12">
-        <v>9.743337211267935</v>
+        <v>6.608447716854101</v>
       </c>
       <c r="E12">
-        <v>5.597140213472695</v>
+        <v>7.423340816699546</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.971947274875212</v>
+        <v>3.716350203872723</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>39.2645694650832</v>
+        <v>37.52093843908752</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.26248211566057</v>
+        <v>11.40002735514644</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.60766355375951</v>
+        <v>21.13406992897497</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>43.20082563970449</v>
+        <v>29.93001379381067</v>
       </c>
       <c r="C13">
-        <v>34.27727067321257</v>
+        <v>19.50956476190869</v>
       </c>
       <c r="D13">
-        <v>9.710775486264662</v>
+        <v>6.601044099606453</v>
       </c>
       <c r="E13">
-        <v>5.588611374227529</v>
+        <v>7.422083717476349</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.973243374648144</v>
+        <v>3.716665121885523</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>39.16515382123075</v>
+        <v>37.50566741996237</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.23792713429644</v>
+        <v>11.39756301336961</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.60953497661536</v>
+        <v>21.13533756956118</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>42.73295431532507</v>
+        <v>29.81776897115556</v>
       </c>
       <c r="C14">
-        <v>33.89412400943232</v>
+        <v>19.38522684574462</v>
       </c>
       <c r="D14">
-        <v>9.604531109243961</v>
+        <v>6.57689732091187</v>
       </c>
       <c r="E14">
-        <v>5.560973106614633</v>
+        <v>7.417979389099987</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.977454692990119</v>
+        <v>3.717696391716432</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.84222968487627</v>
+        <v>37.45606495350355</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.15808381438268</v>
+        <v>11.38959204328335</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.61609962009455</v>
+        <v>21.13952312137141</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42.44618642094123</v>
+        <v>29.74899896812827</v>
       </c>
       <c r="C15">
-        <v>33.65937590626664</v>
+        <v>19.30879352161244</v>
       </c>
       <c r="D15">
-        <v>9.539403180183243</v>
+        <v>6.56210580233996</v>
       </c>
       <c r="E15">
-        <v>5.544174131236226</v>
+        <v>7.415461781849094</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.98002288680427</v>
+        <v>3.718331346874767</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.64539080982047</v>
+        <v>37.42583599786229</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.10935250003314</v>
+        <v>11.38476021509472</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.62046651691013</v>
+        <v>21.14212642200981</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.79858979367387</v>
+        <v>29.35476739088118</v>
       </c>
       <c r="C16">
-        <v>32.31188138516516</v>
+        <v>18.86671296944215</v>
       </c>
       <c r="D16">
-        <v>9.165062491462631</v>
+        <v>6.477352417872405</v>
       </c>
       <c r="E16">
-        <v>5.44970816637978</v>
+        <v>7.400978950255019</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.994588571243916</v>
+        <v>3.722020341751744</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.53093995788221</v>
+        <v>37.25498963034338</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.832542973568463</v>
+        <v>11.35784969587935</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.65045277794881</v>
+        <v>21.15764894323971</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>39.78263259333622</v>
+        <v>29.11292708585746</v>
       </c>
       <c r="C17">
-        <v>31.48190939535574</v>
+        <v>18.59200126874419</v>
       </c>
       <c r="D17">
-        <v>8.93406987240073</v>
+        <v>6.425396106861422</v>
       </c>
       <c r="E17">
-        <v>5.393173255236416</v>
+        <v>7.392044238579293</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.003411250456698</v>
+        <v>3.724328502562647</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.85820692579389</v>
+        <v>37.15233252716974</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.664692072194615</v>
+        <v>11.34203879259628</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.67293633865168</v>
+        <v>21.1677085511223</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39.19585502697349</v>
+        <v>28.97388285704452</v>
       </c>
       <c r="C18">
-        <v>31.00283129214551</v>
+        <v>18.43275628633413</v>
       </c>
       <c r="D18">
-        <v>8.800587687233625</v>
+        <v>6.395536909454459</v>
       </c>
       <c r="E18">
-        <v>5.361108109647768</v>
+        <v>7.386886673103649</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.008452428495549</v>
+        <v>3.725672733264676</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.47488823989651</v>
+        <v>37.09408709745734</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.568792452712232</v>
+        <v>11.33320233493481</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.68724736382329</v>
+        <v>21.17369115756948</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>38.9967214868576</v>
+        <v>28.92681957120779</v>
       </c>
       <c r="C19">
-        <v>30.84029030858781</v>
+        <v>18.37863117670703</v>
       </c>
       <c r="D19">
-        <v>8.75527517773269</v>
+        <v>6.385432401487392</v>
       </c>
       <c r="E19">
-        <v>5.350323188447719</v>
+        <v>7.385137204782553</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.010154252721698</v>
+        <v>3.726130730858658</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.34569085811785</v>
+        <v>37.07450450838001</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.536426631685169</v>
+        <v>11.33025479651837</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.69231894058381</v>
+        <v>21.17575045585382</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>39.89102329847523</v>
+        <v>29.13866681919681</v>
       </c>
       <c r="C20">
-        <v>31.57042723023567</v>
+        <v>18.62137414230729</v>
       </c>
       <c r="D20">
-        <v>8.958721061193298</v>
+        <v>6.430924640133745</v>
       </c>
       <c r="E20">
-        <v>5.399143253301266</v>
+        <v>7.392997269957625</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.002475688274959</v>
+        <v>3.724081074551877</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>36.92943757711619</v>
+        <v>37.16317794088265</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.682491876062461</v>
+        <v>11.34369525810102</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.67039758594276</v>
+        <v>21.1666173253655</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>42.87041399502303</v>
+        <v>29.85074178159982</v>
       </c>
       <c r="C21">
-        <v>34.00667253870829</v>
+        <v>19.42180500113345</v>
       </c>
       <c r="D21">
-        <v>9.635747231894154</v>
+        <v>6.583990065880825</v>
       </c>
       <c r="E21">
-        <v>5.569063494504849</v>
+        <v>7.419185676407398</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.976220151195387</v>
+        <v>3.717392801150418</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.93687692274555</v>
+        <v>37.47060236617362</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.18149865787295</v>
+        <v>11.39192276803355</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.61409849029807</v>
+        <v>21.1382854810834</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>44.80798755352405</v>
+        <v>30.31551298390173</v>
       </c>
       <c r="C22">
-        <v>35.59489483945466</v>
+        <v>19.93285931368951</v>
       </c>
       <c r="D22">
-        <v>10.07562490218394</v>
+        <v>6.684015525653033</v>
       </c>
       <c r="E22">
-        <v>5.685754869773813</v>
+        <v>7.436140217309253</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.958574757377523</v>
+        <v>3.713168291096339</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>40.29074834109672</v>
+        <v>37.67844021815875</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.56897999116959</v>
+        <v>11.42571100031908</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.59244011471348</v>
+        <v>21.12153612793239</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>43.77407031721496</v>
+        <v>30.06756401878071</v>
       </c>
       <c r="C23">
-        <v>34.74696868390495</v>
+        <v>19.66125151268365</v>
       </c>
       <c r="D23">
-        <v>9.840927167149763</v>
+        <v>6.630642064650854</v>
       </c>
       <c r="E23">
-        <v>5.622866371579352</v>
+        <v>7.427105798507072</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.968047506197843</v>
+        <v>3.715409644366605</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>39.56376271361272</v>
+        <v>37.56689072627433</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.3363082702079</v>
+        <v>11.40747129064644</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.60245515169389</v>
+        <v>21.13031306969693</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>39.84202836015398</v>
+        <v>29.12702989511072</v>
       </c>
       <c r="C24">
-        <v>31.53041439747121</v>
+        <v>18.60809873300056</v>
       </c>
       <c r="D24">
-        <v>8.947578410983906</v>
+        <v>6.428425152818375</v>
       </c>
       <c r="E24">
-        <v>5.396442870430905</v>
+        <v>7.392566469555765</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.002898750900067</v>
+        <v>3.724192883045671</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36.89722356534529</v>
+        <v>37.15827231779794</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.674442733727515</v>
+        <v>11.34294558037205</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.67154107124521</v>
+        <v>21.16711004823764</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.50447321857808</v>
+        <v>28.11536409495559</v>
       </c>
       <c r="C25">
-        <v>27.99245732152139</v>
+        <v>17.42559936054947</v>
       </c>
       <c r="D25">
-        <v>7.959262472589221</v>
+        <v>6.211393463836417</v>
       </c>
       <c r="E25">
-        <v>5.169044106196116</v>
+        <v>7.354598258270794</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.039273336397828</v>
+        <v>3.734304020701252</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.1571553995715</v>
+        <v>36.74820202118333</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.984778638238664</v>
+        <v>11.28320008861972</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.79787209782797</v>
+        <v>21.21430792684682</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_105/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.37907883418829</v>
+        <v>32.18328959873965</v>
       </c>
       <c r="C2">
-        <v>16.52175977624685</v>
+        <v>25.28611924613709</v>
       </c>
       <c r="D2">
-        <v>6.053805848669706</v>
+        <v>7.198822023461997</v>
       </c>
       <c r="E2">
-        <v>7.326001658998125</v>
+        <v>5.010140160268945</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.742306077781016</v>
+        <v>2.06573458926381</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.47353691899758</v>
+        <v>32.2242396476401</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.24777033414911</v>
+        <v>8.491912509803051</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.25543154662104</v>
+        <v>14.92441377150468</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.88870003491815</v>
+        <v>29.97447148715169</v>
       </c>
       <c r="C3">
-        <v>15.89276050444071</v>
+        <v>23.37343204099477</v>
       </c>
       <c r="D3">
-        <v>5.949053628159719</v>
+        <v>6.658698148897659</v>
       </c>
       <c r="E3">
-        <v>7.306207804260249</v>
+        <v>4.905667376690646</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.74808147660402</v>
+        <v>2.083736091194702</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.30476402954628</v>
+        <v>30.95743870681597</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.22912619536125</v>
+        <v>8.165726533619788</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.28723491231438</v>
+        <v>15.02700029802637</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.59295786546052</v>
+        <v>28.60707614306133</v>
       </c>
       <c r="C4">
-        <v>15.5001022417505</v>
+        <v>22.15641421874999</v>
       </c>
       <c r="D4">
-        <v>5.885970466723176</v>
+        <v>6.313679804741865</v>
       </c>
       <c r="E4">
-        <v>7.293845820229543</v>
+        <v>4.842576523669097</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.751802919987089</v>
+        <v>2.094893658252933</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.20980109898311</v>
+        <v>30.19904454730534</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.22033054298903</v>
+        <v>7.969128578840815</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.30868901273648</v>
+        <v>15.09722178324608</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.473954012554</v>
+        <v>28.04096774431752</v>
       </c>
       <c r="C5">
-        <v>15.33874859849085</v>
+        <v>21.64928718538117</v>
       </c>
       <c r="D5">
-        <v>5.8606081930798</v>
+        <v>6.186809158247993</v>
       </c>
       <c r="E5">
-        <v>7.288755202917619</v>
+        <v>4.817065955285671</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.753363742165789</v>
+        <v>2.099475812172988</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.17329430043787</v>
+        <v>29.89470847256083</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.21741351900184</v>
+        <v>7.889937880862169</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.31791422662682</v>
+        <v>15.12752037763321</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.45428977765084</v>
+        <v>27.94642986688998</v>
       </c>
       <c r="C6">
-        <v>15.31188355455339</v>
+        <v>21.5643918595739</v>
       </c>
       <c r="D6">
-        <v>5.856418604009487</v>
+        <v>6.166600486462602</v>
       </c>
       <c r="E6">
-        <v>7.287906691066093</v>
+        <v>4.812840246709428</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.753625597687563</v>
+        <v>2.100239054301129</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.16736503597656</v>
+        <v>29.84445497068574</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.21696945317779</v>
+        <v>7.876844479457586</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.31947514997549</v>
+        <v>15.13264944488342</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.59134658997167</v>
+        <v>28.59947737743222</v>
       </c>
       <c r="C7">
-        <v>15.49793121631057</v>
+        <v>22.14962075294569</v>
       </c>
       <c r="D7">
-        <v>5.885626982312188</v>
+        <v>6.311750664294174</v>
       </c>
       <c r="E7">
-        <v>7.293777381790896</v>
+        <v>4.842231751715939</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.751823790107389</v>
+        <v>2.094955300476825</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.20929986831292</v>
+        <v>30.19492124004821</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.22028850102365</v>
+        <v>7.968056829998678</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.30881147619865</v>
+        <v>15.09762375343771</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.20898640010407</v>
+        <v>31.40345773706782</v>
       </c>
       <c r="C8">
-        <v>16.30637947561581</v>
+        <v>24.63516116003201</v>
       </c>
       <c r="D8">
-        <v>6.017451519207547</v>
+        <v>7.015267830408847</v>
       </c>
       <c r="E8">
-        <v>7.319219651519279</v>
+        <v>4.973855716182304</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.744261177594781</v>
+        <v>2.071925635482502</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.41355426206934</v>
+        <v>31.78328643075933</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.24079183984288</v>
+        <v>8.378672321041492</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.26599625525778</v>
+        <v>14.95819638909009</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.45523255496243</v>
+        <v>36.98290533028331</v>
       </c>
       <c r="C9">
-        <v>17.82958253783069</v>
+        <v>29.19756269107247</v>
       </c>
       <c r="D9">
-        <v>6.2842446664792</v>
+        <v>8.296602909125591</v>
       </c>
       <c r="E9">
-        <v>7.367485578775018</v>
+        <v>5.243987273236506</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.730812127742364</v>
+        <v>2.027111843752426</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.88215322692703</v>
+        <v>35.06532943012591</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.30200040673324</v>
+        <v>9.214485467830082</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.19741385447108</v>
+        <v>14.74947811093997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.38236676691933</v>
+        <v>40.91422435523776</v>
       </c>
       <c r="C10">
-        <v>18.89788789808266</v>
+        <v>32.40638978154525</v>
       </c>
       <c r="D10">
-        <v>6.483283536285496</v>
+        <v>9.191344977901737</v>
       </c>
       <c r="E10">
-        <v>7.401995962729109</v>
+        <v>5.456225217667194</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.721759213915345</v>
+        <v>1.993576753545994</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.26681127270234</v>
+        <v>37.60822162871683</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.35968865144121</v>
+        <v>9.851788454789849</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.15652776607866</v>
+        <v>14.64808271281116</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.80461894059443</v>
+        <v>42.67812764006953</v>
       </c>
       <c r="C11">
-        <v>19.37062654542875</v>
+        <v>33.84923769239571</v>
       </c>
       <c r="D11">
-        <v>6.574068763846064</v>
+        <v>9.592079936871201</v>
       </c>
       <c r="E11">
-        <v>7.417498158711773</v>
+        <v>5.557753072536092</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.71781762032989</v>
+        <v>1.977946464419596</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>37.45027509866243</v>
+        <v>38.80453208354874</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.38866504487844</v>
+        <v>10.14875472064679</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.14001860899775</v>
+        <v>14.61691448568618</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.96442402376906</v>
+        <v>43.34423270693422</v>
       </c>
       <c r="C12">
-        <v>19.54758113357756</v>
+        <v>34.39474644494588</v>
       </c>
       <c r="D12">
-        <v>6.608447716854101</v>
+        <v>9.743337211268047</v>
       </c>
       <c r="E12">
-        <v>7.423340816699546</v>
+        <v>5.597140213472832</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.716350203872723</v>
+        <v>1.971947274875332</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.52093843908752</v>
+        <v>39.26456946508335</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.40002735514644</v>
+        <v>10.26248211566058</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.13406992897497</v>
+        <v>14.60766355375953</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.93001379381067</v>
+        <v>43.20082563970454</v>
       </c>
       <c r="C13">
-        <v>19.50956476190869</v>
+        <v>34.27727067321282</v>
       </c>
       <c r="D13">
-        <v>6.601044099606453</v>
+        <v>9.710775486264717</v>
       </c>
       <c r="E13">
-        <v>7.422083717476349</v>
+        <v>5.588611374227798</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.716665121885523</v>
+        <v>1.973243374648144</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.50566741996237</v>
+        <v>39.16515382123079</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.39756301336961</v>
+        <v>10.23792713429643</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.13533756956118</v>
+        <v>14.60953497661535</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.81776897115556</v>
+        <v>42.7329543153251</v>
       </c>
       <c r="C14">
-        <v>19.38522684574462</v>
+        <v>33.89412400943229</v>
       </c>
       <c r="D14">
-        <v>6.57689732091187</v>
+        <v>9.604531109243833</v>
       </c>
       <c r="E14">
-        <v>7.417979389099987</v>
+        <v>5.560973106614498</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.717696391716432</v>
+        <v>1.977454692990126</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.45606495350355</v>
+        <v>38.84222968487633</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.38959204328335</v>
+        <v>10.1580838143827</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.13952312137141</v>
+        <v>14.61609962009457</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.74899896812827</v>
+        <v>42.44618642094144</v>
       </c>
       <c r="C15">
-        <v>19.30879352161244</v>
+        <v>33.65937590626672</v>
       </c>
       <c r="D15">
-        <v>6.56210580233996</v>
+        <v>9.539403180183257</v>
       </c>
       <c r="E15">
-        <v>7.415461781849094</v>
+        <v>5.544174131236231</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.718331346874767</v>
+        <v>1.980022886804134</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.42583599786229</v>
+        <v>38.64539080982056</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.38476021509472</v>
+        <v>10.10935250003313</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.14212642200981</v>
+        <v>14.62046651691008</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.35476739088118</v>
+        <v>40.79858979367417</v>
       </c>
       <c r="C16">
-        <v>18.86671296944215</v>
+        <v>32.31188138516556</v>
       </c>
       <c r="D16">
-        <v>6.477352417872405</v>
+        <v>9.165062491462693</v>
       </c>
       <c r="E16">
-        <v>7.400978950255019</v>
+        <v>5.449708166379912</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.722020341751744</v>
+        <v>1.994588571244055</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.25498963034338</v>
+        <v>37.53093995788237</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.35784969587935</v>
+        <v>9.832542973568478</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.15764894323971</v>
+        <v>14.65045277794872</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.11292708585746</v>
+        <v>39.78263259333639</v>
       </c>
       <c r="C17">
-        <v>18.59200126874419</v>
+        <v>31.48190939535597</v>
       </c>
       <c r="D17">
-        <v>6.425396106861422</v>
+        <v>8.934069872400789</v>
       </c>
       <c r="E17">
-        <v>7.392044238579293</v>
+        <v>5.393173255236542</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.724328502562647</v>
+        <v>2.003411250456436</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.15233252716974</v>
+        <v>36.85820692579399</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.34203879259628</v>
+        <v>9.664692072194605</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.1677085511223</v>
+        <v>14.67293633865171</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.97388285704452</v>
+        <v>39.19585502697348</v>
       </c>
       <c r="C18">
-        <v>18.43275628633413</v>
+        <v>31.00283129214546</v>
       </c>
       <c r="D18">
-        <v>6.395536909454459</v>
+        <v>8.800587687233611</v>
       </c>
       <c r="E18">
-        <v>7.386886673103649</v>
+        <v>5.361108109647766</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.725672733264676</v>
+        <v>2.00845242849541</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.09408709745734</v>
+        <v>36.47488823989656</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.33320233493481</v>
+        <v>9.568792452712204</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.17369115756948</v>
+        <v>14.68724736382331</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.92681957120779</v>
+        <v>38.99672148685768</v>
       </c>
       <c r="C19">
-        <v>18.37863117670703</v>
+        <v>30.84029030858802</v>
       </c>
       <c r="D19">
-        <v>6.385432401487392</v>
+        <v>8.755275177732596</v>
       </c>
       <c r="E19">
-        <v>7.385137204782553</v>
+        <v>5.350323188447649</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.726130730858658</v>
+        <v>2.010154252721708</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.07450450838001</v>
+        <v>36.34569085811799</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.33025479651837</v>
+        <v>9.536426631685176</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.17575045585382</v>
+        <v>14.69231894058389</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.13866681919681</v>
+        <v>39.89102329847542</v>
       </c>
       <c r="C20">
-        <v>18.62137414230729</v>
+        <v>31.57042723023584</v>
       </c>
       <c r="D20">
-        <v>6.430924640133745</v>
+        <v>8.958721061193406</v>
       </c>
       <c r="E20">
-        <v>7.392997269957625</v>
+        <v>5.399143253301338</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.724081074551877</v>
+        <v>2.002475688274703</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.16317794088265</v>
+        <v>36.92943757711627</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.34369525810102</v>
+        <v>9.682491876062457</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.1666173253655</v>
+        <v>14.67039758594274</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.85074178159982</v>
+        <v>42.87041399502304</v>
       </c>
       <c r="C21">
-        <v>19.42180500113345</v>
+        <v>34.00667253870832</v>
       </c>
       <c r="D21">
-        <v>6.583990065880825</v>
+        <v>9.635747231894221</v>
       </c>
       <c r="E21">
-        <v>7.419185676407398</v>
+        <v>5.569063494504843</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.717392801150418</v>
+        <v>1.976220151195391</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.47060236617362</v>
+        <v>38.93687692274564</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.39192276803355</v>
+        <v>10.18149865787294</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.1382854810834</v>
+        <v>14.61409849029815</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.31551298390173</v>
+        <v>44.80798755352425</v>
       </c>
       <c r="C22">
-        <v>19.93285931368951</v>
+        <v>35.59489483945482</v>
       </c>
       <c r="D22">
-        <v>6.684015525653033</v>
+        <v>10.075624902184</v>
       </c>
       <c r="E22">
-        <v>7.436140217309253</v>
+        <v>5.685754869773946</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.713168291096339</v>
+        <v>1.958574757377261</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.67844021815875</v>
+        <v>40.29074834109686</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.42571100031908</v>
+        <v>10.56897999116962</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.12153612793239</v>
+        <v>14.59244011471347</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.06756401878071</v>
+        <v>43.77407031721493</v>
       </c>
       <c r="C23">
-        <v>19.66125151268365</v>
+        <v>34.74696868390505</v>
       </c>
       <c r="D23">
-        <v>6.630642064650854</v>
+        <v>9.840927167149808</v>
       </c>
       <c r="E23">
-        <v>7.427105798507072</v>
+        <v>5.62286637157948</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.715409644366605</v>
+        <v>1.968047506198108</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.56689072627433</v>
+        <v>39.56376271361274</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.40747129064644</v>
+        <v>10.3363082702079</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.13031306969693</v>
+        <v>14.60245515169388</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.12702989511072</v>
+        <v>39.84202836015405</v>
       </c>
       <c r="C24">
-        <v>18.60809873300056</v>
+        <v>31.53041439747136</v>
       </c>
       <c r="D24">
-        <v>6.428425152818375</v>
+        <v>8.947578410984043</v>
       </c>
       <c r="E24">
-        <v>7.392566469555765</v>
+        <v>5.396442870430901</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.724192883045671</v>
+        <v>2.002898750899814</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.15827231779794</v>
+        <v>36.89722356534536</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.34294558037205</v>
+        <v>9.674442733727513</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.16711004823764</v>
+        <v>14.67154107124514</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.11536409495559</v>
+        <v>35.50447321857801</v>
       </c>
       <c r="C25">
-        <v>17.42559936054947</v>
+        <v>27.99245732152121</v>
       </c>
       <c r="D25">
-        <v>6.211393463836417</v>
+        <v>7.959262472589162</v>
       </c>
       <c r="E25">
-        <v>7.354598258270794</v>
+        <v>5.169044106196178</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.734304020701252</v>
+        <v>2.039273336398224</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.74820202118333</v>
+        <v>34.15715539957147</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.28320008861972</v>
+        <v>8.984778638238687</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.21430792684682</v>
+        <v>14.79787209782803</v>
       </c>
       <c r="O25">
         <v>0</v>
